--- a/biology/Botanique/Monimiaceae/Monimiaceae.xlsx
+++ b/biology/Botanique/Monimiaceae/Monimiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Monimiacées regroupe des plantes angiospermes de divergence ancienne.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Monimia qui dérive du nom grec Monime une des épouses du roi Mithridate VI (120 - 63 av. J.-C.). En grec moderne Μονιμη signifie "permanent"[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Monimia qui dérive du nom grec Monime une des épouses du roi Mithridate VI (120 - 63 av. J.-C.). En grec moderne Μονιμη signifie "permanent". 
 Cela fait référence au fait que les Monimiaceae, proches des Hernandiaceae, ont une ancienneté estimée à 90 millions d'années.
-Leurs bois fossiles datant de 85 millions d'années ont été utilisés pour calibrer l'arbre phylogénétique de ce clade[1].
+Leurs bois fossiles datant de 85 millions d'années ont été utilisés pour calibrer l'arbre phylogénétique de ce clade.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des lianes, de petits arbres, des arbustes, producteurs d'huiles essentielles, à feuilles persistantes des régions subtropicales à tropicales principalement dans l'hémisphère sud. On trouve dans cette famille des plantes ornementales ou produisant des fruits comestibles ou bien du bois d'œuvre.
 </t>
@@ -575,10 +591,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] la famille était plus vaste contenant les Atherospermataceae et les Siparunaceae qui sont morphologiquement similaires[1] mais rendaient la famille polyphylétique par rapport aux  Hernandiaceae et aux Gomortegaceae.
-À partir de la classification phylogénétique APG II (2003)[3] les Monimiaceae furent séparés en trois familles distinctes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) la famille était plus vaste contenant les Atherospermataceae et les Siparunaceae qui sont morphologiquement similaires mais rendaient la famille polyphylétique par rapport aux  Hernandiaceae et aux Gomortegaceae.
+À partir de la classification phylogénétique APG II (2003) les Monimiaceae furent séparés en trois familles distinctes.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (16 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (16 mai 2010) :
 Anthobembix
 Austromatthaea
 Carnegieodoxa
@@ -640,7 +660,7 @@
 Tetrasynandra
 Wilkiea
 Xymalos
-Selon NCBI  (13 avr. 2010)[5] :
+Selon NCBI  (13 avr. 2010) :
 Faika
 Hedycarya
 Hennecartia
@@ -655,7 +675,7 @@
 Tambourissa
 Wilkiea
 Xymalos
-Selon DELTA Angio           (13 avr. 2010)[6] :
+Selon DELTA Angio           (13 avr. 2010) :
 Austromatthaea
 Decarydendron
 Dryadodaphne
@@ -683,7 +703,7 @@
 Tetrasynandra
 Wilkiea
 Xymalos
-Selon ITIS      (13 avr. 2010)[7] :
+Selon ITIS      (13 avr. 2010) :
 Mollinedia Ruiz &amp; Pav.
 Peumus Molina</t>
         </is>
@@ -713,9 +733,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 avr. 2010)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 avr. 2010) :
 genre Faika
 Faika villosa
 genre Hedycarya
